--- a/2_Grey_Literature_Eligibility_Criteria.xlsx
+++ b/2_Grey_Literature_Eligibility_Criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanolambiase/Software_Projects/Web/GitHub/Bots-and-CAs-for-SE-MLR-OnlineAppendix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D54106-CC14-9E4F-A56B-264075931FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB293EF-73AD-074A-8B7B-E13DA38D91CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="143">
   <si>
     <t>#</t>
   </si>
@@ -468,9 +468,6 @@
   </si>
   <si>
     <t>Discussion on differences between bots types</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
 </sst>
 </file>
@@ -995,10 +992,10 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1165,7 +1162,7 @@
       </c>
       <c r="T3" s="12">
         <f>COUNTIF(P3:P162,"Excluded")</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -3881,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>142</v>
@@ -3942,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>142</v>
@@ -4003,7 +4000,7 @@
         <v>3</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>142</v>
@@ -4062,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>142</v>
